--- a/Project_Interview/Ai 면접 어플리케이션 사용자요구사항 정의.xlsx
+++ b/Project_Interview/Ai 면접 어플리케이션 사용자요구사항 정의.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\학교 폴더\3학년 1학기\앱프로그래밍 응용\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2E8BBB6-6FA2-4AAF-9589-68E1EB082C38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB9B0886-93D6-4C5B-AB25-EAEE803A1DEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1905" yWindow="1905" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="요구사항 정의" sheetId="2" r:id="rId1"/>
@@ -43,241 +43,262 @@
     <t>U-02</t>
   </si>
   <si>
+    <t>U-05</t>
+  </si>
+  <si>
+    <t>회원가입 및 로그인</t>
+  </si>
+  <si>
+    <t>AI 면접 기능</t>
+  </si>
+  <si>
+    <t>질문 반복/스킵 기능</t>
+  </si>
+  <si>
+    <t>면접 결과 요약 제공</t>
+  </si>
+  <si>
+    <t>이력서 기반 질문 생성</t>
+  </si>
+  <si>
+    <t>UI/UX 직관성</t>
+  </si>
+  <si>
+    <t>면접 기록 확인</t>
+  </si>
+  <si>
+    <t>오프라인 면접 모드</t>
+  </si>
+  <si>
+    <t>질문 다시 듣기, 건너뛰기 등 인터랙션 제공</t>
+  </si>
+  <si>
+    <t>면접 종료 후 핵심 피드백 요약 제공</t>
+  </si>
+  <si>
+    <t>이력서를 업로드하면 맞춤형 질문 제공</t>
+  </si>
+  <si>
+    <t>간단한 인터페이스로 누구나 사용 가능</t>
+  </si>
+  <si>
+    <t>지난 면접 히스토리와 피드백 확인</t>
+  </si>
+  <si>
+    <t>기본 질문으로 오프라인 면접 가능</t>
+  </si>
+  <si>
+    <t>Must</t>
+  </si>
+  <si>
+    <t>Should</t>
+  </si>
+  <si>
+    <t>Could</t>
+  </si>
+  <si>
+    <t>Won’t</t>
+  </si>
+  <si>
+    <t>D-01</t>
+  </si>
+  <si>
+    <t>D-07</t>
+  </si>
+  <si>
+    <t>Flutter 기반 구현</t>
+  </si>
+  <si>
+    <t>음성 인식 및 TTS 연동</t>
+  </si>
+  <si>
+    <t>로컬 캐시 구현</t>
+  </si>
+  <si>
+    <t>상태 관리 설계</t>
+  </si>
+  <si>
+    <t>프롬프트 설계</t>
+  </si>
+  <si>
+    <t>안드로이드 앱 우선 개발</t>
+  </si>
+  <si>
+    <t>STT/TTS API 연동 (예: Google Speech API)</t>
+  </si>
+  <si>
+    <t>면접 기록/질문을 로컬에 저장</t>
+  </si>
+  <si>
+    <t>Provider, Riverpod 등으로 구조화</t>
+  </si>
+  <si>
+    <t>백엔드와 RESTful 연동</t>
+  </si>
+  <si>
+    <t>역할에 맞는 질문 생성용 프롬프트 구성</t>
+  </si>
+  <si>
+    <t>R-03</t>
+  </si>
+  <si>
+    <t>R-04</t>
+  </si>
+  <si>
+    <t>R-05</t>
+  </si>
+  <si>
+    <t>R-06</t>
+  </si>
+  <si>
+    <t>R-08</t>
+  </si>
+  <si>
+    <t>질문 난이도 자동 조절</t>
+  </si>
+  <si>
+    <t>질문 시간 제한 설정</t>
+  </si>
+  <si>
+    <t>감정 분석</t>
+  </si>
+  <si>
+    <t>진단 리포트 제공</t>
+  </si>
+  <si>
+    <t>다국어 지원</t>
+  </si>
+  <si>
+    <t>AI 코치 모드</t>
+  </si>
+  <si>
+    <t>프롬프트 템플릿화</t>
+  </si>
+  <si>
+    <t>사용자 로그 분석 기반 질문 개선</t>
+  </si>
+  <si>
+    <t>사용자 수준에 맞춘 질문 수준 자동 조정</t>
+  </si>
+  <si>
+    <t>시간 내 답변 훈련 가능</t>
+  </si>
+  <si>
+    <t>답변 음성/텍스트의 감정 톤 분석</t>
+  </si>
+  <si>
+    <t>통계 기반 피드백 및 점수 그래프</t>
+  </si>
+  <si>
+    <t>영어/한국어 전환 가능</t>
+  </si>
+  <si>
+    <t>답변 실시간 피드백/추천 문장 제공</t>
+  </si>
+  <si>
+    <t>프롬프트를 JSON/YAML로 관리</t>
+  </si>
+  <si>
+    <t>로그 데이터로 질문 품질 개선</t>
+  </si>
+  <si>
+    <t>분류</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>개발자</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ai 추천</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AI API 연동</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AI API로 질문 생성</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hive 데이터베이스 연동</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>U-03</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>U-04</t>
-  </si>
-  <si>
-    <t>U-05</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>U-06</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>U-08</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>U-07</t>
-  </si>
-  <si>
-    <t>U-08</t>
-  </si>
-  <si>
-    <t>회원가입 및 로그인</t>
-  </si>
-  <si>
-    <t>AI 면접 기능</t>
-  </si>
-  <si>
-    <t>질문 반복/스킵 기능</t>
-  </si>
-  <si>
-    <t>면접 결과 요약 제공</t>
-  </si>
-  <si>
-    <t>이력서 기반 질문 생성</t>
-  </si>
-  <si>
-    <t>UI/UX 직관성</t>
-  </si>
-  <si>
-    <t>면접 기록 확인</t>
-  </si>
-  <si>
-    <t>오프라인 면접 모드</t>
-  </si>
-  <si>
-    <t>이메일/소셜 로그인 기능</t>
-  </si>
-  <si>
-    <t>텍스트 또는 음성 기반 질문/응답 시스템</t>
-  </si>
-  <si>
-    <t>질문 다시 듣기, 건너뛰기 등 인터랙션 제공</t>
-  </si>
-  <si>
-    <t>면접 종료 후 핵심 피드백 요약 제공</t>
-  </si>
-  <si>
-    <t>이력서를 업로드하면 맞춤형 질문 제공</t>
-  </si>
-  <si>
-    <t>간단한 인터페이스로 누구나 사용 가능</t>
-  </si>
-  <si>
-    <t>지난 면접 히스토리와 피드백 확인</t>
-  </si>
-  <si>
-    <t>기본 질문으로 오프라인 면접 가능</t>
-  </si>
-  <si>
-    <t>Must</t>
-  </si>
-  <si>
-    <t>Should</t>
-  </si>
-  <si>
-    <t>Could</t>
-  </si>
-  <si>
-    <t>Won’t</t>
-  </si>
-  <si>
-    <t>D-01</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>D-02</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>D-03</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>D-04</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>D-05</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>D-06</t>
-  </si>
-  <si>
-    <t>D-07</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>D-08</t>
-  </si>
-  <si>
-    <t>Flutter 기반 구현</t>
-  </si>
-  <si>
-    <t>음성 인식 및 TTS 연동</t>
-  </si>
-  <si>
-    <t>GPT API 연동</t>
-  </si>
-  <si>
-    <t>Firebase 연동</t>
-  </si>
-  <si>
-    <t>로컬 캐시 구현</t>
-  </si>
-  <si>
-    <t>상태 관리 설계</t>
-  </si>
-  <si>
-    <t>Spring Boot API 통신</t>
-  </si>
-  <si>
-    <t>프롬프트 설계</t>
-  </si>
-  <si>
-    <t>안드로이드 앱 우선 개발</t>
-  </si>
-  <si>
-    <t>STT/TTS API 연동 (예: Google Speech API)</t>
-  </si>
-  <si>
-    <t>OpenAI 또는 HuggingFace API로 질문 생성</t>
-  </si>
-  <si>
-    <t>로그인, 데이터 저장, 푸시 알림 등</t>
-  </si>
-  <si>
-    <t>면접 기록/질문을 로컬에 저장</t>
-  </si>
-  <si>
-    <t>Provider, Riverpod 등으로 구조화</t>
-  </si>
-  <si>
-    <t>백엔드와 RESTful 연동</t>
-  </si>
-  <si>
-    <t>역할에 맞는 질문 생성용 프롬프트 구성</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>R-01</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>R-02</t>
-  </si>
-  <si>
-    <t>R-03</t>
-  </si>
-  <si>
-    <t>R-04</t>
-  </si>
-  <si>
-    <t>R-05</t>
-  </si>
-  <si>
-    <t>R-06</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>R-07</t>
-  </si>
-  <si>
-    <t>R-08</t>
-  </si>
-  <si>
-    <t>질문 난이도 자동 조절</t>
-  </si>
-  <si>
-    <t>질문 시간 제한 설정</t>
-  </si>
-  <si>
-    <t>감정 분석</t>
-  </si>
-  <si>
-    <t>진단 리포트 제공</t>
-  </si>
-  <si>
-    <t>다국어 지원</t>
-  </si>
-  <si>
-    <t>AI 코치 모드</t>
-  </si>
-  <si>
-    <t>프롬프트 템플릿화</t>
-  </si>
-  <si>
-    <t>사용자 로그 분석 기반 질문 개선</t>
-  </si>
-  <si>
-    <t>사용자 수준에 맞춘 질문 수준 자동 조정</t>
-  </si>
-  <si>
-    <t>시간 내 답변 훈련 가능</t>
-  </si>
-  <si>
-    <t>답변 음성/텍스트의 감정 톤 분석</t>
-  </si>
-  <si>
-    <t>통계 기반 피드백 및 점수 그래프</t>
-  </si>
-  <si>
-    <t>영어/한국어 전환 가능</t>
-  </si>
-  <si>
-    <t>답변 실시간 피드백/추천 문장 제공</t>
-  </si>
-  <si>
-    <t>프롬프트를 JSON/YAML로 관리</t>
-  </si>
-  <si>
-    <t>로그 데이터로 질문 품질 개선</t>
-  </si>
-  <si>
-    <t>분류</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>개발자</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>사용자</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ai 추천</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그인, 데이터 저장 등</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>백엔드 통신</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그인/회원가입 기능</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>텍스트 기반 질문/응답 시스템</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -656,7 +677,7 @@
   <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -668,7 +689,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>80</v>
+        <v>59</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -685,410 +706,410 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>82</v>
       </c>
       <c r="E2" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E3" t="s">
         <v>21</v>
-      </c>
-      <c r="E3" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>66</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="E4" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>67</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" t="s">
         <v>22</v>
-      </c>
-      <c r="E5" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="E6" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>68</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D7" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="E7" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>70</v>
       </c>
       <c r="C8" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="E8" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>69</v>
       </c>
       <c r="C9" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D9" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E9" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
         <v>32</v>
       </c>
-      <c r="C10" t="s">
-        <v>40</v>
-      </c>
-      <c r="D10" t="s">
-        <v>48</v>
-      </c>
       <c r="E10" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="B11" t="s">
-        <v>34</v>
+        <v>71</v>
       </c>
       <c r="C11" t="s">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="D11" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="E11" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="B12" t="s">
-        <v>35</v>
+        <v>72</v>
       </c>
       <c r="C12" t="s">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="D12" t="s">
-        <v>51</v>
+        <v>80</v>
       </c>
       <c r="E12" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="B13" t="s">
-        <v>39</v>
+        <v>73</v>
       </c>
       <c r="C13" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="D13" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="E13" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="B14" t="s">
+        <v>74</v>
+      </c>
+      <c r="C14" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" t="s">
         <v>33</v>
       </c>
-      <c r="C14" t="s">
-        <v>41</v>
-      </c>
-      <c r="D14" t="s">
-        <v>49</v>
-      </c>
       <c r="E14" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="B15" t="s">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="C15" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="D15" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="E15" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
+        <v>60</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
         <v>81</v>
       </c>
-      <c r="B16" t="s">
-        <v>38</v>
-      </c>
-      <c r="C16" t="s">
-        <v>46</v>
-      </c>
       <c r="D16" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="E16" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="B17" t="s">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="C17" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="D17" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="E17" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="B18" t="s">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="C18" t="s">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="D18" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="E18" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="B19" t="s">
-        <v>57</v>
+        <v>78</v>
       </c>
       <c r="C19" t="s">
-        <v>65</v>
+        <v>44</v>
       </c>
       <c r="D19" t="s">
-        <v>73</v>
+        <v>52</v>
       </c>
       <c r="E19" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="B20" t="s">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="C20" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="D20" t="s">
-        <v>74</v>
+        <v>53</v>
       </c>
       <c r="E20" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="B21" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="C21" t="s">
-        <v>67</v>
+        <v>46</v>
       </c>
       <c r="D21" t="s">
-        <v>75</v>
+        <v>54</v>
       </c>
       <c r="E21" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="B22" t="s">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="C22" t="s">
-        <v>68</v>
+        <v>47</v>
       </c>
       <c r="D22" t="s">
-        <v>76</v>
+        <v>55</v>
       </c>
       <c r="E22" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="B23" t="s">
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="C23" t="s">
-        <v>69</v>
+        <v>48</v>
       </c>
       <c r="D23" t="s">
-        <v>77</v>
+        <v>56</v>
       </c>
       <c r="E23" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="B24" t="s">
-        <v>56</v>
+        <v>79</v>
       </c>
       <c r="C24" t="s">
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="D24" t="s">
-        <v>72</v>
+        <v>51</v>
       </c>
       <c r="E24" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="B25" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="C25" t="s">
-        <v>71</v>
+        <v>50</v>
       </c>
       <c r="D25" t="s">
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="E25" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
